--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dkk4-Kremen2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Dkk4-Kremen2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2686976666666667</v>
+        <v>0.2063233333333333</v>
       </c>
       <c r="H2">
-        <v>0.8060930000000001</v>
+        <v>0.61897</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.4307696666666667</v>
+        <v>0.3987243333333333</v>
       </c>
       <c r="N2">
-        <v>1.292309</v>
+        <v>1.196173</v>
       </c>
       <c r="O2">
-        <v>0.660439138118362</v>
+        <v>0.5027922793035905</v>
       </c>
       <c r="P2">
-        <v>0.660439138118362</v>
+        <v>0.5027922793035905</v>
       </c>
       <c r="Q2">
-        <v>0.1157468043041111</v>
+        <v>0.08226613353444444</v>
       </c>
       <c r="R2">
-        <v>1.041721238737</v>
+        <v>0.74039520181</v>
       </c>
       <c r="S2">
-        <v>0.660439138118362</v>
+        <v>0.5027922793035905</v>
       </c>
       <c r="T2">
-        <v>0.660439138118362</v>
+        <v>0.5027922793035905</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2686976666666667</v>
+        <v>0.2063233333333333</v>
       </c>
       <c r="H3">
-        <v>0.8060930000000001</v>
+        <v>0.61897</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,28 +614,90 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.2214776666666667</v>
+        <v>0.321599</v>
       </c>
       <c r="N3">
-        <v>0.6644330000000001</v>
+        <v>0.964797</v>
       </c>
       <c r="O3">
-        <v>0.3395608618816379</v>
+        <v>0.4055370608559684</v>
       </c>
       <c r="P3">
-        <v>0.339560861881638</v>
+        <v>0.4055370608559684</v>
       </c>
       <c r="Q3">
-        <v>0.05951053225211111</v>
+        <v>0.06635337767666667</v>
       </c>
       <c r="R3">
-        <v>0.535594790269</v>
+        <v>0.59718039909</v>
       </c>
       <c r="S3">
-        <v>0.3395608618816379</v>
+        <v>0.4055370608559684</v>
       </c>
       <c r="T3">
-        <v>0.339560861881638</v>
+        <v>0.4055370608559684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.2063233333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.61897</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.07269666666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.21809</v>
+      </c>
+      <c r="O4">
+        <v>0.09167065984044119</v>
+      </c>
+      <c r="P4">
+        <v>0.09167065984044119</v>
+      </c>
+      <c r="Q4">
+        <v>0.01499901858888889</v>
+      </c>
+      <c r="R4">
+        <v>0.1349911673</v>
+      </c>
+      <c r="S4">
+        <v>0.09167065984044119</v>
+      </c>
+      <c r="T4">
+        <v>0.09167065984044119</v>
       </c>
     </row>
   </sheetData>
